--- a/Raw source files/146_WhiskenHousehold.xlsx
+++ b/Raw source files/146_WhiskenHousehold.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Value Date</t>
   </si>
@@ -38,24 +38,27 @@
     <t>13:02:37</t>
   </si>
   <si>
+    <t>Apple Pay</t>
+  </si>
+  <si>
+    <t>WOOLWORTHS JOHANNESBURG</t>
+  </si>
+  <si>
+    <t>KC YOUNG</t>
+  </si>
+  <si>
+    <t>12:55:12</t>
+  </si>
+  <si>
+    <t>Checkers Kyalami GAUTENG</t>
+  </si>
+  <si>
+    <t>12:30:26</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t xml:space="preserve">WOOLWORTHS               KYALAMI JHB  ZA</t>
-  </si>
-  <si>
-    <t>KC YOUNG</t>
-  </si>
-  <si>
-    <t>12:55:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkers Kyalami         SB058150     ZA</t>
-  </si>
-  <si>
-    <t>12:30:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dischem Kyalami Corner   GP           ZA</t>
   </si>
   <si>
@@ -65,18 +68,12 @@
     <t>18:35:32</t>
   </si>
   <si>
-    <t>Apple Pay</t>
-  </si>
-  <si>
     <t>Clicks Kyalami Corner KYALAMI</t>
   </si>
   <si>
     <t>18:28:43</t>
   </si>
   <si>
-    <t>Checkers Kyalami GAUTENG</t>
-  </si>
-  <si>
     <t>18:21:38</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
   </si>
   <si>
     <t>11:20:59</t>
-  </si>
-  <si>
-    <t>WOOLWORTHS JOHANNESBURG</t>
   </si>
   <si>
     <t>2023-02-25</t>
@@ -530,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -544,13 +538,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -564,16 +558,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -584,19 +578,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4">
         <v>256.5</v>
@@ -604,19 +598,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="4">
         <v>256.5</v>
@@ -624,19 +618,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
         <v>-0.07</v>
@@ -644,19 +638,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4">
         <v>2.11</v>
@@ -664,19 +658,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3">
         <v>-0.16</v>
@@ -684,19 +678,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4">
         <v>4.93</v>
@@ -704,19 +698,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3">
         <v>-40</v>
@@ -724,16 +718,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -744,16 +738,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -764,19 +758,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>-206</v>
@@ -784,16 +778,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -804,16 +798,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -824,19 +818,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="4">
         <v>2500</v>
@@ -844,19 +838,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3">
         <v>-626.5</v>
@@ -864,19 +858,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="4">
         <v>2000</v>
@@ -884,19 +878,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="4">
         <v>150</v>
@@ -904,19 +898,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3">
         <v>-411.96</v>
@@ -924,16 +918,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -944,19 +938,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="4">
         <v>1.51</v>
@@ -964,19 +958,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4">
         <v>3.51</v>
@@ -984,19 +978,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3">
         <v>-40</v>
@@ -1004,16 +998,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1024,16 +1018,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1044,16 +1038,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1064,16 +1058,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1084,16 +1078,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -1104,19 +1098,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4">
         <v>2000</v>
@@ -1124,19 +1118,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="4">
         <v>150</v>
@@ -1144,19 +1138,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="4">
         <v>2000</v>
@@ -1164,19 +1158,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="3">
         <v>-613.19</v>
@@ -1184,19 +1178,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="4">
         <v>500</v>
@@ -1204,16 +1198,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
@@ -1224,16 +1218,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -1244,16 +1238,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
@@ -1264,16 +1258,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
@@ -1284,19 +1278,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="4">
         <v>1.5</v>
@@ -1304,19 +1298,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="4">
         <v>3.49</v>
@@ -1324,19 +1318,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="3">
         <v>-40</v>
@@ -1344,16 +1338,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
@@ -1364,16 +1358,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
@@ -1384,16 +1378,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
@@ -1404,16 +1398,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
@@ -1424,19 +1418,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="4">
         <v>1500</v>
@@ -1444,16 +1438,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
@@ -1464,16 +1458,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
@@ -1484,19 +1478,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F52" s="3">
         <v>-470</v>
@@ -1504,19 +1498,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F53" s="4">
         <v>2000</v>
@@ -1524,19 +1518,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" s="4">
         <v>150</v>
@@ -1544,19 +1538,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="4">
         <v>0.35</v>
@@ -1564,19 +1558,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56" s="3">
         <v>-32.26</v>
@@ -1584,19 +1578,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F57" s="4">
         <v>0.83</v>
@@ -1604,16 +1598,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
@@ -1624,19 +1618,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F59" s="4">
         <v>2000</v>
@@ -1644,19 +1638,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F60" s="4">
         <v>150</v>
